--- a/doc/方法接口参数_20190528.xlsx
+++ b/doc/方法接口参数_20190528.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="592">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4245,11 +4245,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增工程师分配部门页面，左侧为取得部门树（带checkbox多选），右侧为工程师列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增用户分配部门页面，左侧为取得部门树（单选），右侧为用户列表</t>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/auth/confirmUserToDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为某用户分配部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": 更新成功,
+    "data": [{
+        },…,
+     ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常
+{
+    "code": -1,
+    "message": 。。。
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增工程师分配部门页面，左侧为取得部门树（带checkbox多选），右侧为工程师列表(单选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增科室主管人员分配部门页面，左侧为取得部门树（单选），右侧为科室主管人员列表（单选或多选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer isSupervisor;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+用户部门对象数组
+例子如下：
+JSON.stringify(data)
+data = {
+creater:10001,
+users:[{deptId：2，userId:10002,isSupervisor:1},
+{deptId：2，userId:10003,isSupervisor:0},
+       {deptId：3，userId:10004,isSupervisor:0}]
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4688,7 +4738,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4830,19 +4880,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -4856,6 +4897,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5171,18 +5227,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>580</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="55">
+      <c r="A2" s="52">
         <v>43613</v>
       </c>
       <c r="B2" t="s">
@@ -7259,17 +7315,17 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="46.625" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
   </cols>
@@ -7470,13 +7526,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>532</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -7510,13 +7566,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="109.5" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>543</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -7527,28 +7583,38 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="37" t="s">
+    <row r="14" spans="1:6" ht="216">
+      <c r="A14" s="55" t="s">
         <v>583</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="B14" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1">
+    <row r="16" spans="1:6" ht="30" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="37" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="24"/>
@@ -7557,7 +7623,9 @@
     </row>
     <row r="17" spans="1:6" ht="27" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>589</v>
+      </c>
       <c r="C17" s="36"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -7571,81 +7639,94 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" s="14" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="C21" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="6" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="C27" s="25" t="s">
+    <row r="28" spans="1:6">
+      <c r="C28" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="44" t="s">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="C29" s="44" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="45" t="s">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="C30" s="46" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="45" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="46" t="s">
+    <row r="32" spans="1:6">
+      <c r="C32" s="46" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="47" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="C32" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9422,10 +9503,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>512</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="15" t="s">
         <v>115</v>
       </c>
